--- a/teaching/traditional_assets/database/data/israel/israel_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_computers_peripherals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.08220000000000001</v>
+        <v>-0.0203</v>
       </c>
       <c r="G2">
-        <v>0.1570967741935484</v>
+        <v>-0.3341621084037792</v>
       </c>
       <c r="H2">
-        <v>-0.0564516129032258</v>
+        <v>-0.8901044256588762</v>
       </c>
       <c r="I2">
-        <v>-0.2807945201031498</v>
+        <v>-1.727613143362786</v>
       </c>
       <c r="J2">
-        <v>-0.2807945201031498</v>
+        <v>-1.727613143362786</v>
       </c>
       <c r="K2">
-        <v>-3.32</v>
+        <v>-37.85</v>
       </c>
       <c r="L2">
-        <v>-0.2141935483870968</v>
+        <v>-1.882148184982596</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.4</v>
+        <v>23.58</v>
       </c>
       <c r="V2">
-        <v>0.4116222760290557</v>
+        <v>0.01495623493593809</v>
       </c>
       <c r="W2">
-        <v>-0.2837606837606838</v>
+        <v>-1.817747047925177</v>
       </c>
       <c r="X2">
-        <v>0.1380322321067732</v>
+        <v>0.08879919470468652</v>
       </c>
       <c r="Y2">
-        <v>-0.4217929158674569</v>
+        <v>-1.906546242629863</v>
       </c>
       <c r="Z2">
-        <v>1.827059870075566</v>
+        <v>0.770601375430043</v>
       </c>
       <c r="AA2">
-        <v>-0.5130283994175919</v>
+        <v>-1.148695408007903</v>
       </c>
       <c r="AB2">
-        <v>0.09613745584222311</v>
+        <v>0.0765788225553283</v>
       </c>
       <c r="AC2">
-        <v>-0.609165855259815</v>
+        <v>-1.225274230563231</v>
       </c>
       <c r="AD2">
-        <v>4.52</v>
+        <v>5.28</v>
       </c>
       <c r="AE2">
-        <v>0.7815753079941078</v>
+        <v>2.166501565128117</v>
       </c>
       <c r="AF2">
-        <v>5.301575307994107</v>
+        <v>7.446501565128116</v>
       </c>
       <c r="AG2">
-        <v>1.901575307994107</v>
+        <v>-16.13349843487188</v>
       </c>
       <c r="AH2">
-        <v>0.3909262152508935</v>
+        <v>0.004700936214795809</v>
       </c>
       <c r="AI2">
-        <v>0.3920826669404234</v>
+        <v>0.1137625963361175</v>
       </c>
       <c r="AJ2">
-        <v>0.1871339089027012</v>
+        <v>-0.01033889443874008</v>
       </c>
       <c r="AK2">
-        <v>0.1878734535020677</v>
+        <v>-0.3852637596715279</v>
       </c>
       <c r="AL2">
-        <v>0.298</v>
+        <v>10.933</v>
       </c>
       <c r="AM2">
-        <v>0.298</v>
+        <v>10.933</v>
       </c>
       <c r="AN2">
-        <v>-1.455247907276239</v>
+        <v>-0.1636245312838948</v>
       </c>
       <c r="AO2">
-        <v>-15.03355704697987</v>
+        <v>-3.213207719747554</v>
       </c>
       <c r="AP2">
-        <v>-0.6122264352846449</v>
+        <v>0.4999689620029094</v>
       </c>
       <c r="AQ2">
-        <v>-15.03355704697987</v>
+        <v>-3.213207719747554</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.08220000000000001</v>
+        <v>-0.0203</v>
       </c>
       <c r="G3">
-        <v>0.1570967741935484</v>
+        <v>-0.03892215568862272</v>
       </c>
       <c r="H3">
-        <v>-0.0564516129032258</v>
+        <v>-0.2455089820359281</v>
       </c>
       <c r="I3">
-        <v>-0.2807945201031498</v>
+        <v>-0.2660060067680014</v>
       </c>
       <c r="J3">
-        <v>-0.2807945201031498</v>
+        <v>-0.2660060067680014</v>
       </c>
       <c r="K3">
-        <v>-3.32</v>
+        <v>-5.45</v>
       </c>
       <c r="L3">
-        <v>-0.2141935483870968</v>
+        <v>-0.3263473053892216</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,198 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="V3">
-        <v>0.4116222760290557</v>
+        <v>0.2283185840707964</v>
       </c>
       <c r="W3">
-        <v>-0.2837606837606838</v>
+        <v>-0.6630170316301703</v>
       </c>
       <c r="X3">
-        <v>0.1380322321067732</v>
+        <v>0.1015336855370778</v>
       </c>
       <c r="Y3">
-        <v>-0.4217929158674569</v>
+        <v>-0.7645507171672481</v>
       </c>
       <c r="Z3">
-        <v>1.827059870075566</v>
+        <v>1.745674726158512</v>
       </c>
       <c r="AA3">
-        <v>-0.5130283994175919</v>
+        <v>-0.4643599630212501</v>
       </c>
       <c r="AB3">
-        <v>0.09613745584222311</v>
+        <v>0.07707733340887156</v>
       </c>
       <c r="AC3">
-        <v>-0.609165855259815</v>
+        <v>-0.5414372964301216</v>
       </c>
       <c r="AD3">
-        <v>4.52</v>
+        <v>3.45</v>
       </c>
       <c r="AE3">
-        <v>0.7815753079941078</v>
+        <v>2.166501565128117</v>
       </c>
       <c r="AF3">
-        <v>5.301575307994107</v>
+        <v>5.616501565128116</v>
       </c>
       <c r="AG3">
-        <v>1.901575307994107</v>
+        <v>3.036501565128116</v>
       </c>
       <c r="AH3">
-        <v>0.3909262152508935</v>
+        <v>0.3320131850846774</v>
       </c>
       <c r="AI3">
-        <v>0.3920826669404234</v>
+        <v>0.5140256038632857</v>
       </c>
       <c r="AJ3">
-        <v>0.1871339089027012</v>
+        <v>0.2118021297827676</v>
       </c>
       <c r="AK3">
-        <v>0.1878734535020677</v>
+        <v>0.3638053071019232</v>
       </c>
       <c r="AL3">
-        <v>0.298</v>
+        <v>0.233</v>
       </c>
       <c r="AM3">
-        <v>0.298</v>
+        <v>0.233</v>
       </c>
       <c r="AN3">
-        <v>-1.455247907276239</v>
+        <v>-1.162007409902324</v>
       </c>
       <c r="AO3">
-        <v>-15.03355704697987</v>
+        <v>-20.72961373390558</v>
       </c>
       <c r="AP3">
-        <v>-0.6122264352846449</v>
+        <v>-1.022735454741703</v>
       </c>
       <c r="AQ3">
-        <v>-15.03355704697987</v>
+        <v>-20.72961373390558</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nano Dimension Ltd. (NasdaqCM:NNDM)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Computers/Peripherals</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-1.780058651026393</v>
+      </c>
+      <c r="H4">
+        <v>-4.046920821114369</v>
+      </c>
+      <c r="I4">
+        <v>-8.885630498533724</v>
+      </c>
+      <c r="J4">
+        <v>-8.885630498533724</v>
+      </c>
+      <c r="K4">
+        <v>-32.4</v>
+      </c>
+      <c r="L4">
+        <v>-9.501466275659823</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>21</v>
+      </c>
+      <c r="V4">
+        <v>0.01341595860218489</v>
+      </c>
+      <c r="W4">
+        <v>-2.972477064220183</v>
+      </c>
+      <c r="X4">
+        <v>0.07606470387229526</v>
+      </c>
+      <c r="Y4">
+        <v>-3.048541768092479</v>
+      </c>
+      <c r="Z4">
+        <v>0.206291591046582</v>
+      </c>
+      <c r="AA4">
+        <v>-1.833030852994555</v>
+      </c>
+      <c r="AB4">
+        <v>0.07608031170178506</v>
+      </c>
+      <c r="AC4">
+        <v>-1.90911116469634</v>
+      </c>
+      <c r="AD4">
+        <v>1.83</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1.83</v>
+      </c>
+      <c r="AG4">
+        <v>-19.17</v>
+      </c>
+      <c r="AH4">
+        <v>0.001167739753562244</v>
+      </c>
+      <c r="AI4">
+        <v>0.0335595085274161</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.01239869868639765</v>
+      </c>
+      <c r="AK4">
+        <v>-0.5717268118103191</v>
+      </c>
+      <c r="AL4">
+        <v>10.7</v>
+      </c>
+      <c r="AM4">
+        <v>10.7</v>
+      </c>
+      <c r="AN4">
+        <v>-0.06245733788395905</v>
+      </c>
+      <c r="AO4">
+        <v>-2.83177570093458</v>
+      </c>
+      <c r="AP4">
+        <v>0.6542662116040956</v>
+      </c>
+      <c r="AQ4">
+        <v>-2.83177570093458</v>
       </c>
     </row>
   </sheetData>
